--- a/data/league_data/spain/18/spain_misc.xlsx
+++ b/data/league_data/spain/18/spain_misc.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C022CEA-49AB-DF43-AE7B-5019FE8FC66B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA93F01B-E266-E248-A0F1-CA13EEE41630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="583">
   <si>
     <t>Rk</t>
   </si>
@@ -724,9 +724,6 @@
     <t>Riza Durmisi</t>
   </si>
   <si>
-    <t>Nacho</t>
-  </si>
-  <si>
     <t>Sergio Asenjo</t>
   </si>
   <si>
@@ -1766,12 +1763,18 @@
   </si>
   <si>
     <t>Bruno Gama</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2629,14 +2632,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
@@ -2664,7 +2667,7 @@
     <col min="24" max="24" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2812,7 +2815,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2884,7 +2887,7 @@
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2958,7 +2961,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3030,7 +3033,7 @@
       </c>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3102,7 +3105,7 @@
       </c>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3176,7 +3179,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3248,7 +3251,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3396,7 +3399,7 @@
         <v>73.900000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3544,7 +3547,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3618,7 +3621,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3690,7 +3693,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3764,7 +3767,7 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3838,7 +3841,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3912,7 +3915,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4060,7 +4063,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4132,7 +4135,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4280,7 +4283,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4354,7 +4357,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4428,7 +4431,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4502,7 +4505,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4576,7 +4579,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4650,7 +4653,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4796,7 +4799,7 @@
       </c>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4868,7 +4871,7 @@
       </c>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4942,7 +4945,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5090,7 +5093,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5164,7 +5167,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5238,7 +5241,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5312,7 +5315,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5386,7 +5389,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5460,7 +5463,7 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5534,7 +5537,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5608,7 +5611,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5682,7 +5685,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5756,7 +5759,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5830,7 +5833,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5904,7 +5907,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5978,7 +5981,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6052,7 +6055,7 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6126,7 +6129,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6200,7 +6203,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6274,7 +6277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6348,7 +6351,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6422,7 +6425,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6496,7 +6499,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6570,7 +6573,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6644,7 +6647,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6718,7 +6721,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6792,7 +6795,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6864,7 +6867,7 @@
       </c>
       <c r="X57" s="2"/>
     </row>
-    <row r="58" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6936,7 +6939,7 @@
       </c>
       <c r="X58" s="2"/>
     </row>
-    <row r="59" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7010,7 +7013,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7084,7 +7087,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7158,7 +7161,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7232,7 +7235,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7306,7 +7309,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7380,7 +7383,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7452,7 +7455,7 @@
       </c>
       <c r="X65" s="2"/>
     </row>
-    <row r="66" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7526,7 +7529,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7600,7 +7603,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7674,7 +7677,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7748,7 +7751,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7822,12 +7825,12 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>138</v>
+        <v>582</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>25</v>
@@ -7896,7 +7899,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -7970,7 +7973,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8044,7 +8047,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8118,7 +8121,7 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8192,7 +8195,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8266,7 +8269,7 @@
         <v>67.3</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8340,7 +8343,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8414,7 +8417,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8488,7 +8491,7 @@
         <v>67.3</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8554,7 +8557,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8628,7 +8631,7 @@
         <v>57.8</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8702,7 +8705,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8776,7 +8779,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -8850,7 +8853,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -8924,7 +8927,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -8998,7 +9001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -9070,7 +9073,7 @@
       </c>
       <c r="X87" s="2"/>
     </row>
-    <row r="88" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -9144,7 +9147,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -9218,7 +9221,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9290,7 +9293,7 @@
       </c>
       <c r="X90" s="2"/>
     </row>
-    <row r="91" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9364,7 +9367,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9438,7 +9441,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9512,7 +9515,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9586,7 +9589,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9660,7 +9663,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9734,7 +9737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -9808,7 +9811,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -9882,7 +9885,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -9954,7 +9957,7 @@
       </c>
       <c r="X99" s="2"/>
     </row>
-    <row r="100" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10026,7 +10029,7 @@
       </c>
       <c r="X100" s="2"/>
     </row>
-    <row r="101" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10100,7 +10103,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10174,7 +10177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10248,7 +10251,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10322,7 +10325,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10396,7 +10399,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10470,7 +10473,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10544,7 +10547,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -10618,7 +10621,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -10692,7 +10695,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -10766,7 +10769,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -10840,7 +10843,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -10914,7 +10917,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -10988,7 +10991,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11062,7 +11065,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11136,7 +11139,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11210,7 +11213,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11282,7 +11285,7 @@
       </c>
       <c r="X117" s="2"/>
     </row>
-    <row r="118" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11354,7 +11357,7 @@
       </c>
       <c r="X118" s="2"/>
     </row>
-    <row r="119" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11428,7 +11431,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11502,7 +11505,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11576,7 +11579,7 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11650,7 +11653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11724,7 +11727,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -11798,7 +11801,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -11872,7 +11875,7 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -11946,7 +11949,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -12020,7 +12023,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12094,7 +12097,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12168,7 +12171,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12242,7 +12245,7 @@
         <v>73.900000000000006</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12316,7 +12319,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12390,7 +12393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12464,7 +12467,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12538,7 +12541,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12612,7 +12615,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12686,7 +12689,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12760,7 +12763,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -12834,7 +12837,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -12908,7 +12911,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -12982,7 +12985,7 @@
         <v>82.8</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -13056,7 +13059,7 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -13130,7 +13133,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -13204,7 +13207,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -13276,7 +13279,7 @@
       </c>
       <c r="X144" s="2"/>
     </row>
-    <row r="145" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -13350,7 +13353,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -13424,7 +13427,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -13498,7 +13501,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -13572,7 +13575,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -13646,7 +13649,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -13720,7 +13723,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -13794,7 +13797,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -13868,7 +13871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -13942,7 +13945,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -14016,7 +14019,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -14090,7 +14093,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -14164,7 +14167,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -14238,12 +14241,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>234</v>
+        <v>581</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>25</v>
@@ -14312,12 +14315,12 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>25</v>
@@ -14384,12 +14387,12 @@
       </c>
       <c r="X159" s="2"/>
     </row>
-    <row r="160" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>25</v>
@@ -14458,15 +14461,15 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>26</v>
@@ -14532,12 +14535,12 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>66</v>
@@ -14606,15 +14609,15 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>41</v>
@@ -14680,12 +14683,12 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>25</v>
@@ -14754,12 +14757,12 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>25</v>
@@ -14828,12 +14831,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>61</v>
@@ -14902,12 +14905,12 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>25</v>
@@ -14976,12 +14979,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>25</v>
@@ -15050,12 +15053,12 @@
         <v>68.599999999999994</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>131</v>
@@ -15124,12 +15127,12 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>25</v>
@@ -15198,12 +15201,12 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>25</v>
@@ -15272,12 +15275,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>107</v>
@@ -15346,12 +15349,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>25</v>
@@ -15418,12 +15421,12 @@
       </c>
       <c r="X173" s="2"/>
     </row>
-    <row r="174" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>89</v>
@@ -15492,12 +15495,12 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>66</v>
@@ -15566,12 +15569,12 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>25</v>
@@ -15640,12 +15643,12 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>25</v>
@@ -15714,12 +15717,12 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>25</v>
@@ -15788,12 +15791,12 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>25</v>
@@ -15862,12 +15865,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>25</v>
@@ -15936,12 +15939,12 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>61</v>
@@ -16010,12 +16013,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>25</v>
@@ -16084,12 +16087,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>25</v>
@@ -16156,12 +16159,12 @@
       </c>
       <c r="X183" s="2"/>
     </row>
-    <row r="184" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>25</v>
@@ -16230,12 +16233,12 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>25</v>
@@ -16304,12 +16307,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>25</v>
@@ -16378,15 +16381,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>49</v>
@@ -16452,12 +16455,12 @@
         <v>60.6</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>61</v>
@@ -16526,12 +16529,12 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>25</v>
@@ -16600,15 +16603,15 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>79</v>
@@ -16674,12 +16677,12 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>25</v>
@@ -16748,12 +16751,12 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>25</v>
@@ -16822,12 +16825,12 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>89</v>
@@ -16896,12 +16899,12 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>25</v>
@@ -16970,12 +16973,12 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>25</v>
@@ -17044,12 +17047,12 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>25</v>
@@ -17118,18 +17121,18 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>82</v>
@@ -17192,12 +17195,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>61</v>
@@ -17266,12 +17269,12 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>25</v>
@@ -17340,12 +17343,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>25</v>
@@ -17414,12 +17417,12 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>61</v>
@@ -17488,12 +17491,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>25</v>
@@ -17562,12 +17565,12 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>81</v>
@@ -17636,12 +17639,12 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>25</v>
@@ -17710,12 +17713,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>107</v>
@@ -17784,12 +17787,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>66</v>
@@ -17858,12 +17861,12 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>25</v>
@@ -17932,15 +17935,15 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>26</v>
@@ -18006,12 +18009,12 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>89</v>
@@ -18080,12 +18083,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>25</v>
@@ -18154,12 +18157,12 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>25</v>
@@ -18228,15 +18231,15 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>26</v>
@@ -18302,12 +18305,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>25</v>
@@ -18376,12 +18379,12 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>111</v>
@@ -18450,12 +18453,12 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>131</v>
@@ -18524,12 +18527,12 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>25</v>
@@ -18598,12 +18601,12 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>99</v>
@@ -18672,12 +18675,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>131</v>
@@ -18746,12 +18749,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>25</v>
@@ -18820,12 +18823,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>25</v>
@@ -18894,12 +18897,12 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>25</v>
@@ -18968,12 +18971,12 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>25</v>
@@ -19042,15 +19045,15 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C223" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>49</v>
@@ -19116,15 +19119,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>49</v>
@@ -19190,12 +19193,12 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>89</v>
@@ -19264,12 +19267,12 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>61</v>
@@ -19338,12 +19341,12 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>94</v>
@@ -19412,12 +19415,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>25</v>
@@ -19486,15 +19489,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C229" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>79</v>
@@ -19560,12 +19563,12 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>25</v>
@@ -19634,12 +19637,12 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>111</v>
@@ -19708,12 +19711,12 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>25</v>
@@ -19782,12 +19785,12 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>25</v>
@@ -19856,12 +19859,12 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>25</v>
@@ -19930,12 +19933,12 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>25</v>
@@ -20004,12 +20007,12 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>25</v>
@@ -20078,15 +20081,15 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>41</v>
@@ -20152,12 +20155,12 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>25</v>
@@ -20226,12 +20229,12 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>61</v>
@@ -20300,12 +20303,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>25</v>
@@ -20374,12 +20377,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>111</v>
@@ -20448,12 +20451,12 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>25</v>
@@ -20522,12 +20525,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>25</v>
@@ -20594,12 +20597,12 @@
       </c>
       <c r="X243" s="2"/>
     </row>
-    <row r="244" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>25</v>
@@ -20668,12 +20671,12 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>25</v>
@@ -20742,12 +20745,12 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="246" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>25</v>
@@ -20816,12 +20819,12 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="247" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>25</v>
@@ -20890,12 +20893,12 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="248" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>25</v>
@@ -20964,15 +20967,15 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>73</v>
@@ -21038,12 +21041,12 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>25</v>
@@ -21112,12 +21115,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>25</v>
@@ -21186,12 +21189,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>25</v>
@@ -21260,12 +21263,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>25</v>
@@ -21334,12 +21337,12 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>25</v>
@@ -21408,12 +21411,12 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>25</v>
@@ -21482,12 +21485,12 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>61</v>
@@ -21556,7 +21559,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -21630,12 +21633,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>25</v>
@@ -21704,12 +21707,12 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>25</v>
@@ -21778,12 +21781,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>99</v>
@@ -21852,12 +21855,12 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>76</v>
@@ -21926,12 +21929,12 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>25</v>
@@ -22000,12 +22003,12 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>25</v>
@@ -22074,12 +22077,12 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>61</v>
@@ -22148,12 +22151,12 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>107</v>
@@ -22222,7 +22225,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -22296,12 +22299,12 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>25</v>
@@ -22370,15 +22373,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>49</v>
@@ -22444,12 +22447,12 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="269" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>89</v>
@@ -22518,12 +22521,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="270" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>182</v>
@@ -22592,12 +22595,12 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>44</v>
@@ -22666,15 +22669,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C272" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>26</v>
@@ -22740,12 +22743,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>131</v>
@@ -22814,12 +22817,12 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>66</v>
@@ -22888,12 +22891,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>25</v>
@@ -22960,12 +22963,12 @@
       </c>
       <c r="X275" s="2"/>
     </row>
-    <row r="276" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>25</v>
@@ -23034,12 +23037,12 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>81</v>
@@ -23108,12 +23111,12 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>25</v>
@@ -23182,12 +23185,12 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>66</v>
@@ -23256,15 +23259,15 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C280" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>49</v>
@@ -23330,12 +23333,12 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>99</v>
@@ -23404,12 +23407,12 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>44</v>
@@ -23478,15 +23481,15 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>26</v>
@@ -23552,12 +23555,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>25</v>
@@ -23626,15 +23629,15 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>41</v>
@@ -23700,12 +23703,12 @@
         <v>72.7</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>61</v>
@@ -23774,12 +23777,12 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>25</v>
@@ -23848,12 +23851,12 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>203</v>
@@ -23922,15 +23925,15 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="289" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>73</v>
@@ -23996,12 +23999,12 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="290" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>25</v>
@@ -24070,12 +24073,12 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="291" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>66</v>
@@ -24144,15 +24147,15 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="292" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>73</v>
@@ -24218,12 +24221,12 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="293" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>81</v>
@@ -24292,15 +24295,15 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="294" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>26</v>
@@ -24366,12 +24369,12 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="295" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>25</v>
@@ -24440,12 +24443,12 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="296" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>61</v>
@@ -24512,12 +24515,12 @@
       </c>
       <c r="X296" s="2"/>
     </row>
-    <row r="297" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>25</v>
@@ -24586,12 +24589,12 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="298" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>25</v>
@@ -24660,12 +24663,12 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="299" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>99</v>
@@ -24734,12 +24737,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="300" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>25</v>
@@ -24808,12 +24811,12 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="301" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>25</v>
@@ -24882,12 +24885,12 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="302" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>44</v>
@@ -24956,12 +24959,12 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="303" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>66</v>
@@ -25030,12 +25033,12 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="304" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>182</v>
@@ -25104,12 +25107,12 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="305" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>89</v>
@@ -25178,12 +25181,12 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="306" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>25</v>
@@ -25252,12 +25255,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="307" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>25</v>
@@ -25326,12 +25329,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="308" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>61</v>
@@ -25400,12 +25403,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>76</v>
@@ -25474,12 +25477,12 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="310" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>25</v>
@@ -25548,12 +25551,12 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="311" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>25</v>
@@ -25622,12 +25625,12 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="312" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>25</v>
@@ -25696,12 +25699,12 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="313" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>66</v>
@@ -25770,12 +25773,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="314" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>25</v>
@@ -25844,15 +25847,15 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="315" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C315" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>49</v>
@@ -25918,12 +25921,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="316" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>61</v>
@@ -25992,15 +25995,15 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="317" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>41</v>
@@ -26066,12 +26069,12 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="318" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>25</v>
@@ -26140,12 +26143,12 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="319" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>25</v>
@@ -26214,12 +26217,12 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="320" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>25</v>
@@ -26288,12 +26291,12 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="321" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>61</v>
@@ -26362,12 +26365,12 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="322" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>171</v>
@@ -26436,12 +26439,12 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="323" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>25</v>
@@ -26508,12 +26511,12 @@
       </c>
       <c r="X323" s="2"/>
     </row>
-    <row r="324" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>25</v>
@@ -26582,12 +26585,12 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="325" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>107</v>
@@ -26656,12 +26659,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="326" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>25</v>
@@ -26728,12 +26731,12 @@
       </c>
       <c r="X326" s="2"/>
     </row>
-    <row r="327" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>44</v>
@@ -26802,12 +26805,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="328" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>140</v>
@@ -26876,12 +26879,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>81</v>
@@ -26950,12 +26953,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="330" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>25</v>
@@ -27024,12 +27027,12 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="331" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>25</v>
@@ -27098,12 +27101,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="332" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>25</v>
@@ -27172,12 +27175,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="333" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>25</v>
@@ -27246,12 +27249,12 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="334" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>25</v>
@@ -27318,12 +27321,12 @@
       </c>
       <c r="X334" s="2"/>
     </row>
-    <row r="335" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>105</v>
@@ -27392,15 +27395,15 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="336" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>73</v>
@@ -27466,12 +27469,12 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="337" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>25</v>
@@ -27540,12 +27543,12 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="338" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>25</v>
@@ -27614,15 +27617,15 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="339" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>79</v>
@@ -27688,12 +27691,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>81</v>
@@ -27762,12 +27765,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="341" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>89</v>
@@ -27836,15 +27839,15 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="342" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>73</v>
@@ -27910,12 +27913,12 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="343" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>25</v>
@@ -27982,12 +27985,12 @@
       </c>
       <c r="X343" s="2"/>
     </row>
-    <row r="344" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>25</v>
@@ -28056,12 +28059,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="345" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>25</v>
@@ -28130,12 +28133,12 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="346" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>25</v>
@@ -28204,12 +28207,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="347" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>25</v>
@@ -28278,12 +28281,12 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="348" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>25</v>
@@ -28352,12 +28355,12 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="349" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>25</v>
@@ -28426,15 +28429,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="350" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C350" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>26</v>
@@ -28500,12 +28503,12 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="351" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>25</v>
@@ -28574,12 +28577,12 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="352" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>81</v>
@@ -28648,12 +28651,12 @@
         <v>72.7</v>
       </c>
     </row>
-    <row r="353" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>25</v>
@@ -28722,12 +28725,12 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="354" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>59</v>
@@ -28796,12 +28799,12 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="355" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>25</v>
@@ -28870,12 +28873,12 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="356" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>25</v>
@@ -28944,12 +28947,12 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="357" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>25</v>
@@ -29018,12 +29021,12 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="358" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>25</v>
@@ -29090,12 +29093,12 @@
       </c>
       <c r="X358" s="2"/>
     </row>
-    <row r="359" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>25</v>
@@ -29162,12 +29165,12 @@
       </c>
       <c r="X359" s="2"/>
     </row>
-    <row r="360" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>81</v>
@@ -29236,12 +29239,12 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="361" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>131</v>
@@ -29310,15 +29313,15 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="362" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>26</v>
@@ -29384,12 +29387,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="363" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>25</v>
@@ -29458,12 +29461,12 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="364" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>25</v>
@@ -29532,12 +29535,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="365" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>94</v>
@@ -29606,12 +29609,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="366" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>66</v>
@@ -29680,12 +29683,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="367" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>25</v>
@@ -29752,12 +29755,12 @@
       </c>
       <c r="X367" s="2"/>
     </row>
-    <row r="368" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>203</v>
@@ -29826,12 +29829,12 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="369" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>25</v>
@@ -29900,12 +29903,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="370" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>25</v>
@@ -29974,12 +29977,12 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="371" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>81</v>
@@ -30048,12 +30051,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="372" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>25</v>
@@ -30122,12 +30125,12 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="373" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>25</v>
@@ -30196,12 +30199,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="374" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>25</v>
@@ -30270,12 +30273,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>25</v>
@@ -30344,12 +30347,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="376" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>37</v>
@@ -30418,12 +30421,12 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="377" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>25</v>
@@ -30492,12 +30495,12 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="378" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>25</v>
@@ -30566,15 +30569,15 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="379" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>79</v>
@@ -30640,12 +30643,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>25</v>
@@ -30714,12 +30717,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="381" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>25</v>
@@ -30788,15 +30791,15 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="382" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>73</v>
@@ -30862,12 +30865,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>81</v>
@@ -30936,15 +30939,15 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="384" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>79</v>
@@ -31010,12 +31013,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>111</v>
@@ -31084,12 +31087,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="386" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>61</v>
@@ -31158,12 +31161,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>25</v>
@@ -31232,12 +31235,12 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="388" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>25</v>
@@ -31306,12 +31309,12 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="389" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>59</v>
@@ -31380,12 +31383,12 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="390" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>25</v>
@@ -31454,12 +31457,12 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="391" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>25</v>
@@ -31528,12 +31531,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="392" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>25</v>
@@ -31602,15 +31605,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="393" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>26</v>
@@ -31676,12 +31679,12 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="394" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>25</v>
@@ -31750,12 +31753,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="395" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>25</v>
@@ -31824,12 +31827,12 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="396" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>61</v>
@@ -31898,12 +31901,12 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="397" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>25</v>
@@ -31972,12 +31975,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="398" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>44</v>
@@ -32046,12 +32049,12 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="399" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>25</v>
@@ -32094,18 +32097,18 @@
       <c r="W399" s="2"/>
       <c r="X399" s="2"/>
     </row>
-    <row r="400" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E400" s="3" t="s">
         <v>62</v>
@@ -32168,12 +32171,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>131</v>
@@ -32242,12 +32245,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>81</v>
@@ -32316,12 +32319,12 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="403" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>25</v>
@@ -32390,12 +32393,12 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="404" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>25</v>
@@ -32464,12 +32467,12 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="405" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>94</v>
@@ -32538,12 +32541,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>61</v>
@@ -32612,15 +32615,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="407" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>29</v>
@@ -32684,12 +32687,12 @@
       </c>
       <c r="X407" s="2"/>
     </row>
-    <row r="408" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>61</v>
@@ -32758,12 +32761,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>25</v>
@@ -32832,12 +32835,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="410" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>89</v>
@@ -32906,12 +32909,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="411" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>25</v>
@@ -32980,12 +32983,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>25</v>
@@ -33054,15 +33057,15 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="413" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>73</v>
@@ -33128,12 +33131,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="414" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>25</v>
@@ -33202,12 +33205,12 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="415" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>81</v>
@@ -33276,12 +33279,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="416" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>25</v>
@@ -33350,12 +33353,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>44</v>
@@ -33424,15 +33427,15 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="418" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C418" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>79</v>
@@ -33498,15 +33501,15 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="419" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>79</v>
@@ -33572,12 +33575,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>25</v>
@@ -33646,12 +33649,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="421" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>111</v>
@@ -33720,12 +33723,12 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="422" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>81</v>
@@ -33794,12 +33797,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="423" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>25</v>
@@ -33866,12 +33869,12 @@
       </c>
       <c r="X423" s="2"/>
     </row>
-    <row r="424" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>61</v>
@@ -33938,15 +33941,15 @@
       </c>
       <c r="X424" s="2"/>
     </row>
-    <row r="425" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>26</v>
@@ -34012,12 +34015,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="426" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>25</v>
@@ -34086,12 +34089,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="427" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>25</v>
@@ -34160,15 +34163,15 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="428" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>26</v>
@@ -34234,12 +34237,12 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="429" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>59</v>
@@ -34308,12 +34311,12 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="430" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>25</v>
@@ -34382,15 +34385,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>517</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>41</v>
@@ -34456,15 +34459,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="432" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>41</v>
@@ -34530,12 +34533,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="433" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>25</v>
@@ -34602,12 +34605,12 @@
       </c>
       <c r="X433" s="2"/>
     </row>
-    <row r="434" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>61</v>
@@ -34676,12 +34679,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="435" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>25</v>
@@ -34748,12 +34751,12 @@
       </c>
       <c r="X435" s="2"/>
     </row>
-    <row r="436" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>182</v>
@@ -34822,12 +34825,12 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="437" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>61</v>
@@ -34896,15 +34899,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="438" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>79</v>
@@ -34970,12 +34973,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="439" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>25</v>
@@ -35044,12 +35047,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="440" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>203</v>
@@ -35118,12 +35121,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="441" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>25</v>
@@ -35192,12 +35195,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="442" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>25</v>
@@ -35266,15 +35269,15 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="443" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D443" s="3" t="s">
         <v>73</v>
@@ -35340,12 +35343,12 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="444" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>111</v>
@@ -35414,12 +35417,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="445" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>99</v>
@@ -35488,12 +35491,12 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="446" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>25</v>
@@ -35562,12 +35565,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>25</v>
@@ -35636,12 +35639,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="448" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>25</v>
@@ -35708,12 +35711,12 @@
       </c>
       <c r="X448" s="2"/>
     </row>
-    <row r="449" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>25</v>
@@ -35782,12 +35785,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="450" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>25</v>
@@ -35856,12 +35859,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="451" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>25</v>
@@ -35930,12 +35933,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="452" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>89</v>
@@ -36004,12 +36007,12 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="453" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>25</v>
@@ -36078,12 +36081,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="454" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>25</v>
@@ -36150,12 +36153,12 @@
       </c>
       <c r="X454" s="2"/>
     </row>
-    <row r="455" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>25</v>
@@ -36222,12 +36225,12 @@
       </c>
       <c r="X455" s="2"/>
     </row>
-    <row r="456" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>99</v>
@@ -36296,12 +36299,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>61</v>
@@ -36370,12 +36373,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="458" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>25</v>
@@ -36444,12 +36447,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="459" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>25</v>
@@ -36518,12 +36521,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="460" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>25</v>
@@ -36592,15 +36595,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C461" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>547</v>
       </c>
       <c r="D461" s="3" t="s">
         <v>26</v>
@@ -36666,12 +36669,12 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="462" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>105</v>
@@ -36740,12 +36743,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="463" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>61</v>
@@ -36814,12 +36817,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="464" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>25</v>
@@ -36888,15 +36891,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D465" s="3" t="s">
         <v>73</v>
@@ -36962,12 +36965,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="466" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>25</v>
@@ -37036,12 +37039,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="467" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>25</v>
@@ -37110,12 +37113,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="468" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>25</v>
@@ -37184,12 +37187,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="469" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>25</v>
@@ -37258,12 +37261,12 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="470" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>25</v>
@@ -37332,12 +37335,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="471" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>25</v>
@@ -37406,12 +37409,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="472" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>99</v>
@@ -37480,12 +37483,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="473" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>25</v>
@@ -37554,12 +37557,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="474" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>25</v>
@@ -37626,12 +37629,12 @@
       </c>
       <c r="X474" s="2"/>
     </row>
-    <row r="475" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>61</v>
@@ -37700,12 +37703,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="476" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>25</v>
@@ -37774,12 +37777,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="477" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>111</v>
@@ -37848,12 +37851,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="478" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>171</v>
@@ -37922,12 +37925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>25</v>
@@ -37994,12 +37997,12 @@
       </c>
       <c r="X479" s="2"/>
     </row>
-    <row r="480" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>25</v>
@@ -38068,12 +38071,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="481" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>89</v>
@@ -38142,12 +38145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>25</v>
@@ -38216,12 +38219,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="483" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>25</v>
@@ -38290,12 +38293,12 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="484" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>25</v>
@@ -38364,12 +38367,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="485" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>25</v>
@@ -38438,12 +38441,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="486" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>61</v>
@@ -38510,15 +38513,15 @@
       </c>
       <c r="X486" s="2"/>
     </row>
-    <row r="487" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C487" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="D487" s="3" t="s">
         <v>26</v>
@@ -38584,12 +38587,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="488" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>25</v>
@@ -38658,15 +38661,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="489" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D489" s="3" t="s">
         <v>29</v>
@@ -38730,12 +38733,12 @@
       </c>
       <c r="X489" s="2"/>
     </row>
-    <row r="490" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>25</v>
@@ -38804,12 +38807,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="491" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>25</v>
@@ -38878,12 +38881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>25</v>
@@ -38952,12 +38955,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="493" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>25</v>
@@ -39026,15 +39029,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>49</v>
@@ -39100,12 +39103,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="495" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>25</v>
@@ -39174,12 +39177,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="496" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>25</v>
@@ -39248,12 +39251,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>25</v>
@@ -39320,12 +39323,12 @@
       </c>
       <c r="X497" s="2"/>
     </row>
-    <row r="498" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>25</v>
@@ -39394,12 +39397,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="499" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>111</v>
@@ -39468,15 +39471,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="500" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C500" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>26</v>
@@ -39542,7 +39545,6 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="501" spans="1:24" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/spain/18/spain_misc.xlsx
+++ b/data/league_data/spain/18/spain_misc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA93F01B-E266-E248-A0F1-CA13EEE41630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94E2251-7094-C946-81D0-D38319F4242D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="584">
   <si>
     <t>Rk</t>
   </si>
@@ -1306,9 +1306,6 @@
     <t>Ousmane Dembélé</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Yannick Carrasco</t>
   </si>
   <si>
@@ -1769,6 +1766,12 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Juanfran Moreno</t>
   </si>
 </sst>
 </file>
@@ -2635,8 +2638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4140,7 +4143,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>70</v>
+        <v>583</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>25</v>
@@ -7830,7 +7833,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>25</v>
@@ -14246,7 +14249,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>25</v>
@@ -27770,7 +27773,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>428</v>
+        <v>582</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>89</v>
@@ -27844,7 +27847,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>313</v>
@@ -27918,7 +27921,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>25</v>
@@ -27990,7 +27993,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>25</v>
@@ -28064,7 +28067,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>25</v>
@@ -28138,7 +28141,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>25</v>
@@ -28212,7 +28215,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>25</v>
@@ -28286,7 +28289,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>25</v>
@@ -28360,7 +28363,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>25</v>
@@ -28434,10 +28437,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C350" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>438</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>26</v>
@@ -28508,7 +28511,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>25</v>
@@ -28582,7 +28585,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>81</v>
@@ -28656,7 +28659,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>25</v>
@@ -28730,7 +28733,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>59</v>
@@ -28804,7 +28807,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>25</v>
@@ -28878,7 +28881,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>25</v>
@@ -28952,7 +28955,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>25</v>
@@ -29026,7 +29029,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>25</v>
@@ -29098,7 +29101,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>25</v>
@@ -29170,7 +29173,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>81</v>
@@ -29244,7 +29247,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>131</v>
@@ -29318,7 +29321,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>365</v>
@@ -29392,7 +29395,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>25</v>
@@ -29466,7 +29469,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>25</v>
@@ -29540,7 +29543,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>94</v>
@@ -29614,7 +29617,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>66</v>
@@ -29688,7 +29691,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>25</v>
@@ -29760,7 +29763,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>203</v>
@@ -29834,7 +29837,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>25</v>
@@ -29908,7 +29911,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>25</v>
@@ -29982,7 +29985,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>81</v>
@@ -30056,7 +30059,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>25</v>
@@ -30130,7 +30133,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>25</v>
@@ -30204,7 +30207,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>25</v>
@@ -30278,7 +30281,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>25</v>
@@ -30352,7 +30355,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>37</v>
@@ -30426,7 +30429,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>25</v>
@@ -30500,7 +30503,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>25</v>
@@ -30574,7 +30577,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>334</v>
@@ -30648,7 +30651,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>25</v>
@@ -30722,7 +30725,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>25</v>
@@ -30796,7 +30799,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>313</v>
@@ -30870,7 +30873,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>81</v>
@@ -30944,7 +30947,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>237</v>
@@ -31018,7 +31021,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>111</v>
@@ -31092,7 +31095,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>61</v>
@@ -31166,7 +31169,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>25</v>
@@ -31240,7 +31243,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>25</v>
@@ -31314,7 +31317,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>59</v>
@@ -31388,7 +31391,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>25</v>
@@ -31462,7 +31465,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>25</v>
@@ -31536,7 +31539,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>25</v>
@@ -31684,7 +31687,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>25</v>
@@ -31758,7 +31761,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>25</v>
@@ -31832,7 +31835,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>61</v>
@@ -31906,7 +31909,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>25</v>
@@ -31980,7 +31983,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>44</v>
@@ -32054,7 +32057,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>25</v>
@@ -32102,7 +32105,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>25</v>
@@ -32176,7 +32179,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>131</v>
@@ -32250,7 +32253,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>81</v>
@@ -32398,7 +32401,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>25</v>
@@ -32472,7 +32475,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>94</v>
@@ -32546,7 +32549,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>61</v>
@@ -32620,7 +32623,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>294</v>
@@ -32692,7 +32695,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>61</v>
@@ -32766,7 +32769,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>25</v>
@@ -32840,7 +32843,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>89</v>
@@ -32914,7 +32917,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>25</v>
@@ -32988,7 +32991,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>25</v>
@@ -33062,7 +33065,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>365</v>
@@ -33136,7 +33139,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>25</v>
@@ -33210,7 +33213,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>81</v>
@@ -33284,7 +33287,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>25</v>
@@ -33358,7 +33361,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>44</v>
@@ -33432,10 +33435,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C418" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>502</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>79</v>
@@ -33506,7 +33509,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>365</v>
@@ -33580,7 +33583,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>25</v>
@@ -33654,7 +33657,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>111</v>
@@ -33728,7 +33731,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>81</v>
@@ -33802,7 +33805,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>25</v>
@@ -33874,7 +33877,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>61</v>
@@ -33946,7 +33949,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>237</v>
@@ -34020,7 +34023,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>25</v>
@@ -34094,7 +34097,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>25</v>
@@ -34168,10 +34171,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>512</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>26</v>
@@ -34242,7 +34245,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>59</v>
@@ -34316,7 +34319,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>25</v>
@@ -34390,10 +34393,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>516</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>41</v>
@@ -34464,7 +34467,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>294</v>
@@ -34538,7 +34541,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>25</v>
@@ -34610,7 +34613,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>61</v>
@@ -34684,7 +34687,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>25</v>
@@ -34756,7 +34759,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>182</v>
@@ -34830,7 +34833,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>61</v>
@@ -34904,7 +34907,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>365</v>
@@ -34978,7 +34981,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>25</v>
@@ -35052,7 +35055,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>203</v>
@@ -35126,7 +35129,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>25</v>
@@ -35200,7 +35203,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>25</v>
@@ -35274,10 +35277,10 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D443" s="3" t="s">
         <v>73</v>
@@ -35348,7 +35351,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>111</v>
@@ -35422,7 +35425,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>99</v>
@@ -35496,7 +35499,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>25</v>
@@ -35644,7 +35647,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>25</v>
@@ -35716,7 +35719,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>25</v>
@@ -35790,7 +35793,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>25</v>
@@ -35864,7 +35867,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>25</v>
@@ -35938,7 +35941,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>89</v>
@@ -36012,7 +36015,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>25</v>
@@ -36086,7 +36089,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>25</v>
@@ -36158,7 +36161,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>25</v>
@@ -36230,7 +36233,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>99</v>
@@ -36304,7 +36307,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>61</v>
@@ -36378,7 +36381,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>25</v>
@@ -36452,7 +36455,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>25</v>
@@ -36526,7 +36529,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>25</v>
@@ -36600,10 +36603,10 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C461" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>546</v>
       </c>
       <c r="D461" s="3" t="s">
         <v>26</v>
@@ -36748,7 +36751,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>61</v>
@@ -36822,7 +36825,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>25</v>
@@ -36896,10 +36899,10 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D465" s="3" t="s">
         <v>73</v>
@@ -36970,7 +36973,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>25</v>
@@ -37044,7 +37047,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>25</v>
@@ -37118,7 +37121,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>25</v>
@@ -37192,7 +37195,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>25</v>
@@ -37266,7 +37269,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>25</v>
@@ -37340,7 +37343,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>25</v>
@@ -37414,7 +37417,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>99</v>
@@ -37488,7 +37491,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>25</v>
@@ -37562,7 +37565,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>25</v>
@@ -37634,7 +37637,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>61</v>
@@ -37708,7 +37711,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>25</v>
@@ -37782,7 +37785,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>111</v>
@@ -37856,7 +37859,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>171</v>
@@ -37930,7 +37933,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>25</v>
@@ -38002,7 +38005,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>25</v>
@@ -38076,7 +38079,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>89</v>
@@ -38150,7 +38153,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>25</v>
@@ -38224,7 +38227,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>25</v>
@@ -38298,7 +38301,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>25</v>
@@ -38372,7 +38375,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>25</v>
@@ -38446,7 +38449,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>61</v>
@@ -38518,10 +38521,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C487" s="3" t="s">
         <v>569</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>570</v>
       </c>
       <c r="D487" s="3" t="s">
         <v>26</v>
@@ -38592,7 +38595,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>25</v>
@@ -38666,7 +38669,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>365</v>
@@ -38738,7 +38741,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>25</v>
@@ -38812,7 +38815,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>25</v>
@@ -38886,7 +38889,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>25</v>
@@ -38960,7 +38963,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>25</v>
@@ -39034,10 +39037,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>49</v>
@@ -39108,7 +39111,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>25</v>
@@ -39182,7 +39185,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>25</v>
@@ -39256,7 +39259,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>25</v>
@@ -39328,7 +39331,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>25</v>
@@ -39402,7 +39405,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>111</v>
